--- a/Структура проекта.xlsx
+++ b/Структура проекта.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Index.js</t>
   </si>
@@ -48,22 +48,19 @@
     <t>&lt;Route render={news} /&gt;</t>
   </si>
   <si>
-    <t>&lt;Route render={profile} /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Route render={ () =&gt; &lt;Messages arrFriends={arrFriends} arrMessages={arrMessages} /&gt; }  /&gt;</t>
-  </si>
-  <si>
-    <t>import arrMessages from './data/DataMessages';</t>
-  </si>
-  <si>
-    <t>import arrFriends from './data/DataFriends';</t>
-  </si>
-  <si>
     <t>&lt; div /&gt;                  /* wrapper */</t>
   </si>
   <si>
     <t xml:space="preserve">               &lt; div /&gt;                     /* content */</t>
+  </si>
+  <si>
+    <t>import state from './data/state';</t>
+  </si>
+  <si>
+    <t>Route path='/profile' render={() =&gt; &lt;Profile state={props.state.stateProfile.posts} /&gt;} /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Route path='/messages' render={ () =&gt; &lt;Messages  state={props.state.stateMessages} /&gt; } /&gt;</t>
   </si>
 </sst>
 </file>
@@ -155,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -210,37 +207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -249,14 +215,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,37 +260,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
@@ -728,20 +698,472 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Прямая соединительная линия 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4438651" y="5505450"/>
+          <a:ext cx="523874" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Прямая соединительная линия 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4429126" y="7248525"/>
+          <a:ext cx="533399" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>170600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Прямая со стрелкой 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4429125" y="5305425"/>
+          <a:ext cx="8675" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Прямая соединительная линия 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5895975" y="5534025"/>
+          <a:ext cx="428626" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Прямая соединительная линия 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5886450" y="5924550"/>
+          <a:ext cx="428626" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457397</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Прямая со стрелкой 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4095547" y="5188085"/>
+          <a:ext cx="9722" cy="719444"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442633</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Прямая соединительная линия 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4436969" y="5314950"/>
+          <a:ext cx="2491068" cy="2241"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>453958</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>332362</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Прямая соединительная линия 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4101830" y="5193152"/>
+          <a:ext cx="2695372" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>332362</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333993</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>143493</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Прямая со стрелкой 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6801940" y="5059172"/>
+          <a:ext cx="1631" cy="131334"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439116</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439116</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Прямая со стрелкой 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6924520" y="5052303"/>
+          <a:ext cx="0" cy="267510"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>120805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>789878</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>120805</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Прямая со стрелкой 14"/>
+        <xdr:cNvPr id="25" name="Прямая со стрелкой 24"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -778,26 +1200,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>116159</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>789878</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>116159</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Прямая со стрелкой 22"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7791450" y="3592784"/>
-          <a:ext cx="751778" cy="0"/>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Прямая со стрелкой 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="2933700"/>
+          <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -828,480 +1250,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Прямая соединительная линия 26"/>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Прямая со стрелкой 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4438651" y="5505450"/>
-          <a:ext cx="523874" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Прямая соединительная линия 27"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4429126" y="7248525"/>
-          <a:ext cx="533399" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>170600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Прямая со стрелкой 29"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4429125" y="5305425"/>
-          <a:ext cx="8675" cy="1943100"/>
+          <a:off x="11601450" y="6143625"/>
+          <a:ext cx="590550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Прямая соединительная линия 35"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5895975" y="5534025"/>
-          <a:ext cx="428626" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Прямая соединительная линия 36"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5886450" y="5924550"/>
-          <a:ext cx="428626" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>137808</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457397</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95252</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Прямая со стрелкой 38"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4095547" y="5188085"/>
-          <a:ext cx="9722" cy="719444"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>442633</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Прямая соединительная линия 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4436969" y="5314950"/>
-          <a:ext cx="2491068" cy="2241"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>453958</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>332362</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Прямая соединительная линия 46"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4101830" y="5193152"/>
-          <a:ext cx="2695372" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>332362</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>12159</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333993</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>143493</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Прямая со стрелкой 52"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6801940" y="5059172"/>
-          <a:ext cx="1631" cy="131334"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>439116</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>4053</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>439116</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Прямая со стрелкой 54"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6924520" y="5052303"/>
-          <a:ext cx="0" cy="267510"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171453</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Скругленная соединительная линия 64"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7105648" y="4191001"/>
-          <a:ext cx="2609854" cy="1733549"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1309,6 +1279,154 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Прямая со стрелкой 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11601450" y="6534150"/>
+          <a:ext cx="590550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Прямая соединительная линия 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12192000" y="3524250"/>
+          <a:ext cx="0" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Прямая соединительная линия 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7762875" y="3524250"/>
+          <a:ext cx="4429125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1599,8 +1717,8 @@
   </sheetPr>
   <dimension ref="D13:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,371 +1730,376 @@
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K13" s="1" t="s">
+    <row r="13" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+    <row r="14" spans="11:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+    <row r="15" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="18" spans="4:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" spans="4:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="O19" s="4" t="s">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="K22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+      <c r="E29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+      <c r="E31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="6"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="K22" s="3" t="s">
-        <v>6</v>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D33" s="3"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="7"/>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="4"/>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D26" s="10" t="s">
-        <v>3</v>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="12"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="4"/>
     </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="16"/>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D37" s="3"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="4"/>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D28" s="15"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="16"/>
+    <row r="38" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="7"/>
     </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D29" s="15"/>
-      <c r="E29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="12"/>
+    <row r="39" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="4"/>
     </row>
-    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D30" s="15"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="16"/>
-    </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D31" s="15"/>
-      <c r="E31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="16"/>
-    </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D32" s="15"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="10" t="s">
+    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="16"/>
-    </row>
-    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D33" s="15"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="16"/>
-    </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D34" s="15"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="12"/>
-    </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D35" s="15"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="16"/>
-    </row>
-    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D36" s="15"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="16"/>
-    </row>
-    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D37" s="15"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="16"/>
-    </row>
-    <row r="38" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D38" s="15"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="12"/>
-    </row>
-    <row r="39" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D39" s="15"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="16"/>
-    </row>
-    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="12"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D26:S26"/>
-    <mergeCell ref="I29:S29"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I34:S34"/>
-    <mergeCell ref="I36:N36"/>
+  <mergeCells count="13">
+    <mergeCell ref="K13:M15"/>
+    <mergeCell ref="K18:M19"/>
+    <mergeCell ref="K22:M23"/>
+    <mergeCell ref="O14:V14"/>
+    <mergeCell ref="I32:S32"/>
     <mergeCell ref="I38:S38"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="D40:S40"/>
-    <mergeCell ref="O18:V18"/>
-    <mergeCell ref="O19:V19"/>
-    <mergeCell ref="K13:M15"/>
-    <mergeCell ref="K18:M19"/>
-    <mergeCell ref="K22:M23"/>
+    <mergeCell ref="D26:S26"/>
+    <mergeCell ref="I29:S29"/>
+    <mergeCell ref="I34:S34"/>
+    <mergeCell ref="I36:N36"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
